--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F8" s="3">
         <v>7100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F9" s="3">
         <v>5500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1200</v>
       </c>
       <c r="K10" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,42 +904,54 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>500</v>
+      </c>
+      <c r="M15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F17" s="3">
         <v>8300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>7300</v>
       </c>
       <c r="I17" s="3">
         <v>7300</v>
       </c>
       <c r="J17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L17" s="3">
         <v>6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1034,42 +1101,54 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-600</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,37 +1176,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1137,15 +1228,15 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1153,10 +1244,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,11 +1418,17 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1382,42 +1521,54 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2700</v>
       </c>
       <c r="I41" s="3">
         <v>2700</v>
       </c>
       <c r="J41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1771,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>40200</v>
+      </c>
+      <c r="F43" s="3">
         <v>39800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>37300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>36400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>45500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>36000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>41100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>38800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,66 +1841,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F45" s="3">
         <v>11100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>11500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>12700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>15000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F46" s="3">
         <v>53500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>51900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>52400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>60900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>52500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>58900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>57700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,66 +1946,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1900</v>
       </c>
       <c r="K48" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M48" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F49" s="3">
         <v>2900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,16 +2086,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="3">
         <v>1700</v>
@@ -1877,13 +2116,19 @@
         <v>1700</v>
       </c>
       <c r="J52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>61600</v>
+      </c>
+      <c r="F54" s="3">
         <v>62500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>61200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>62000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>68200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>60200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>66900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>65600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1975,28 +2236,34 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,66 +2291,84 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F59" s="3">
         <v>51000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>48700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>48600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>58200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>49600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>55900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>53900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>51700</v>
+      </c>
+      <c r="F60" s="3">
         <v>51300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>48900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>48800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>58500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>49900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>56100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>54200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,37 +2396,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F66" s="3">
         <v>53700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>51500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>51400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>58600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>49900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>56100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>54200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-60600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-59400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-58100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-57000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-56200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-55300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-54300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F76" s="3">
         <v>8800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,13 +3030,15 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2860,28 +3301,34 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2947,28 +3406,34 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3108,25 +3599,31 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,25 +3651,31 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-1200</v>
       </c>
       <c r="I102" s="3">
         <v>-1000</v>
@@ -3181,6 +3684,12 @@
         <v>-1200</v>
       </c>
       <c r="K102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E9" s="3">
         <v>5800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5000</v>
       </c>
       <c r="K9" s="3">
         <v>5000</v>
       </c>
       <c r="L9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M9" s="3">
         <v>4600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1600</v>
       </c>
       <c r="G10" s="3">
         <v>1600</v>
       </c>
       <c r="H10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I10" s="3">
         <v>1300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1500</v>
       </c>
       <c r="J10" s="3">
         <v>1500</v>
       </c>
       <c r="K10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -936,17 +956,20 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,7 +977,7 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,28 +1018,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E17" s="3">
         <v>8600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>7300</v>
       </c>
       <c r="J17" s="3">
         <v>7300</v>
@@ -1022,48 +1049,54 @@
         <v>7300</v>
       </c>
       <c r="L17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M17" s="3">
         <v>6900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1200</v>
       </c>
       <c r="G18" s="3">
         <v>-1200</v>
       </c>
       <c r="H18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1100</v>
       </c>
       <c r="M18" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,11 +1120,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1107,39 +1141,42 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-700</v>
       </c>
       <c r="G21" s="3">
         <v>-700</v>
       </c>
       <c r="H21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-600</v>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1200</v>
       </c>
       <c r="G23" s="3">
         <v>-1200</v>
       </c>
       <c r="H23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-800</v>
       </c>
       <c r="J23" s="3">
         <v>-800</v>
       </c>
       <c r="K23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1100</v>
       </c>
       <c r="M23" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1234,12 +1280,12 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1250,10 +1296,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,11 +1485,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,11 +1576,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1527,48 +1597,54 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,28 +1793,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2700</v>
       </c>
       <c r="J41" s="3">
         <v>2700</v>
@@ -1737,13 +1824,16 @@
         <v>2700</v>
       </c>
       <c r="L41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,43 +1867,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E43" s="3">
         <v>31000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>45500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,78 +1943,87 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E45" s="3">
         <v>9300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E46" s="3">
         <v>42100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>53000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>53500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>51900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>52400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>60900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>58900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>57700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1964,66 +2072,72 @@
         <v>4000</v>
       </c>
       <c r="F48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2100</v>
       </c>
       <c r="K48" s="3">
         <v>2100</v>
       </c>
       <c r="L48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2104,7 +2224,7 @@
         <v>1800</v>
       </c>
       <c r="F52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G52" s="3">
         <v>1700</v>
@@ -2122,13 +2242,16 @@
         <v>1700</v>
       </c>
       <c r="L52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M52" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E54" s="3">
         <v>50300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>61600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>61200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>62000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>68200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,19 +2357,20 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -2248,45 +2379,48 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2297,83 +2431,92 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E59" s="3">
         <v>40700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E60" s="3">
         <v>40900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>58500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>49900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2414,31 +2560,34 @@
         <v>2300</v>
       </c>
       <c r="F62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="G62" s="3">
         <v>2500</v>
       </c>
       <c r="H62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I62" s="3">
         <v>2600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E66" s="3">
         <v>43300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>51500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-59400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-58100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-57000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,7 +3240,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1200</v>
       </c>
       <c r="H89" s="3">
         <v>-1200</v>
       </c>
       <c r="I89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3301,10 +3522,10 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -3313,22 +3534,25 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3406,10 +3636,10 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
@@ -3418,22 +3648,25 @@
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,13 +3830,16 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3605,11 +3851,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -3617,13 +3863,16 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E9" s="3">
         <v>5700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4900</v>
-      </c>
-      <c r="K9" s="3">
-        <v>5000</v>
       </c>
       <c r="L9" s="3">
         <v>5000</v>
       </c>
       <c r="M9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N9" s="3">
         <v>4600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1600</v>
       </c>
       <c r="H10" s="3">
         <v>1600</v>
       </c>
       <c r="I10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J10" s="3">
         <v>1300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1500</v>
       </c>
       <c r="K10" s="3">
         <v>1500</v>
       </c>
       <c r="L10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -959,17 +979,20 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,7 +1003,7 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,31 +1045,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>7300</v>
       </c>
       <c r="K17" s="3">
         <v>7300</v>
@@ -1052,51 +1079,57 @@
         <v>7300</v>
       </c>
       <c r="M17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1200</v>
       </c>
       <c r="H18" s="3">
         <v>-1200</v>
       </c>
       <c r="I18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1100</v>
       </c>
       <c r="N18" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1123,11 +1157,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1144,42 +1178,45 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-700</v>
       </c>
       <c r="H21" s="3">
         <v>-700</v>
       </c>
       <c r="I21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-600</v>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1265,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1200</v>
       </c>
       <c r="H23" s="3">
         <v>-1200</v>
       </c>
       <c r="I23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-800</v>
       </c>
       <c r="K23" s="3">
         <v>-800</v>
       </c>
       <c r="L23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1100</v>
       </c>
       <c r="N23" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1283,12 +1329,12 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1299,10 +1345,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,11 +1549,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1579,11 +1649,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1600,51 +1670,57 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,31 +1880,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2700</v>
       </c>
       <c r="K41" s="3">
         <v>2700</v>
@@ -1827,13 +1914,16 @@
         <v>2700</v>
       </c>
       <c r="M41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +1960,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E43" s="3">
         <v>28100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>45500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,84 +2042,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E45" s="3">
         <v>27900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E46" s="3">
         <v>57800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>53000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>53500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>51900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>60900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>58900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>57700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2075,69 +2183,75 @@
         <v>4000</v>
       </c>
       <c r="G48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H48" s="3">
         <v>4300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2100</v>
       </c>
       <c r="L48" s="3">
         <v>2100</v>
       </c>
       <c r="M48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2227,7 +2347,7 @@
         <v>1800</v>
       </c>
       <c r="G52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H52" s="3">
         <v>1700</v>
@@ -2245,13 +2365,16 @@
         <v>1700</v>
       </c>
       <c r="M52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N52" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E54" s="3">
         <v>65800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>50300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>61600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>61200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>62000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>68200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,22 +2488,23 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2382,30 +2513,33 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2422,8 +2556,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2434,93 +2568,102 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E59" s="3">
         <v>56400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>58200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E60" s="3">
         <v>57100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>58500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2548,13 +2691,16 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="3">
         <v>2300</v>
@@ -2563,31 +2709,34 @@
         <v>2300</v>
       </c>
       <c r="G62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H62" s="3">
         <v>2500</v>
       </c>
       <c r="I62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J62" s="3">
         <v>2600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E66" s="3">
         <v>59800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>58600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-57000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-56200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E76" s="3">
         <v>6000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3243,7 +3442,7 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E89" s="3">
         <v>18100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1200</v>
       </c>
       <c r="I89" s="3">
         <v>-1200</v>
       </c>
       <c r="J89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3525,10 +3746,10 @@
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -3537,22 +3758,25 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3639,10 +3869,10 @@
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -3651,22 +3881,25 @@
         <v>-200</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,17 +4076,20 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3854,11 +4100,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -3866,13 +4112,16 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>18700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,219 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F8" s="3">
         <v>8100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>7100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F9" s="3">
         <v>6400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>5900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1200</v>
       </c>
       <c r="O10" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,31 +983,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -982,22 +1021,28 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
@@ -1006,10 +1051,10 @@
         <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>7300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>7300</v>
       </c>
       <c r="M17" s="3">
         <v>7300</v>
       </c>
       <c r="N17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1160,14 +1227,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1181,54 +1248,66 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-900</v>
+        <v>500</v>
       </c>
       <c r="F21" s="3">
         <v>-500</v>
       </c>
       <c r="G21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-600</v>
       </c>
       <c r="O21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,49 +1347,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1300</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
         <v>-900</v>
       </c>
       <c r="G23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1332,15 +1423,15 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1348,10 +1439,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,31 +1629,37 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1552,11 +1673,17 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1652,14 +1791,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1673,54 +1812,66 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2700</v>
       </c>
       <c r="M41" s="3">
         <v>2700</v>
       </c>
       <c r="N41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,72 +2142,84 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25300</v>
+        <v>3600</v>
       </c>
       <c r="E43" s="3">
-        <v>28100</v>
+        <v>2900</v>
       </c>
       <c r="F43" s="3">
-        <v>31000</v>
+        <v>1200</v>
       </c>
       <c r="G43" s="3">
-        <v>40200</v>
+        <v>1100</v>
       </c>
       <c r="H43" s="3">
-        <v>39800</v>
+        <v>1100</v>
       </c>
       <c r="I43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K43" s="3">
         <v>37300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>36400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>45500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>36000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>41100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>38800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2045,90 +2236,108 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16300</v>
+        <v>65500</v>
       </c>
       <c r="E45" s="3">
-        <v>27900</v>
+        <v>61000</v>
       </c>
       <c r="F45" s="3">
-        <v>9300</v>
+        <v>40400</v>
       </c>
       <c r="G45" s="3">
-        <v>10700</v>
+        <v>54900</v>
       </c>
       <c r="H45" s="3">
-        <v>11100</v>
+        <v>39200</v>
       </c>
       <c r="I45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K45" s="3">
         <v>11300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>11500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>15000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>15400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>69100</v>
+      </c>
+      <c r="F46" s="3">
         <v>53000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>57800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>42100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>53000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>53500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>51900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>52400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>60900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>52500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>58900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>57700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,16 +2377,22 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E48" s="3">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="F48" s="3">
         <v>4000</v>
@@ -2186,72 +2401,84 @@
         <v>4000</v>
       </c>
       <c r="H48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1900</v>
       </c>
       <c r="O48" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,13 +2565,19 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
         <v>1800</v>
@@ -2350,10 +2589,10 @@
         <v>1800</v>
       </c>
       <c r="H52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J52" s="3">
         <v>1700</v>
@@ -2368,13 +2607,19 @@
         <v>1700</v>
       </c>
       <c r="N52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>82700</v>
+      </c>
+      <c r="F54" s="3">
         <v>60800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>65800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>50300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>61600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>62500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>61200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>62000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>68200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>60200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>66900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>65600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,63 +2748,71 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2559,11 +2826,11 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2571,105 +2838,123 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>62600</v>
+      </c>
+      <c r="F59" s="3">
         <v>41800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>56400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>40700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>51300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>51000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>48700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>48600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>58200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>49600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>55900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>53900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>63500</v>
+      </c>
+      <c r="F60" s="3">
         <v>42600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>57100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>40900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>51700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>51300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>48900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>48800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>58500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>49900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>56100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>54200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2694,49 +2979,61 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F62" s="3">
         <v>2200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2300</v>
       </c>
       <c r="G62" s="3">
         <v>2300</v>
       </c>
       <c r="H62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F66" s="3">
         <v>45300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>59800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>43300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>54000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>53700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>51500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>51400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>58600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>49900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>56100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>54200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-65200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-64300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-63000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-62200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-60600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-59400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-58100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-57000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-56200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-55300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-54300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F76" s="3">
         <v>15500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,13 +3825,15 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -3445,10 +3842,10 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-11900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>18100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-6200</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,23 +4564,29 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
         <v>10200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4103,25 +4594,31 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,37 +4658,43 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>18700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-1200</v>
       </c>
       <c r="M102" s="3">
         <v>-1000</v>
@@ -4200,6 +4703,12 @@
         <v>-1200</v>
       </c>
       <c r="O102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E8" s="3">
         <v>13500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E9" s="3">
         <v>10600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4900</v>
-      </c>
-      <c r="N9" s="3">
-        <v>5000</v>
       </c>
       <c r="O9" s="3">
         <v>5000</v>
       </c>
       <c r="P9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>4600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E10" s="3">
         <v>2900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1600</v>
       </c>
       <c r="K10" s="3">
         <v>1600</v>
       </c>
       <c r="L10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M10" s="3">
         <v>1300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1500</v>
       </c>
       <c r="N10" s="3">
         <v>1500</v>
       </c>
       <c r="O10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,19 +1006,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1015,8 +1035,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1027,17 +1047,20 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,7 +1068,7 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1057,7 +1080,7 @@
         <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,40 +1125,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>7300</v>
       </c>
       <c r="N17" s="3">
         <v>7300</v>
@@ -1141,60 +1168,66 @@
         <v>7300</v>
       </c>
       <c r="P17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1200</v>
       </c>
       <c r="K18" s="3">
         <v>-1200</v>
       </c>
       <c r="L18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1233,11 +1267,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1254,51 +1288,54 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-700</v>
       </c>
       <c r="K21" s="3">
         <v>-700</v>
       </c>
       <c r="L21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M21" s="3">
         <v>-600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-600</v>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,60 +1393,66 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1200</v>
       </c>
       <c r="K23" s="3">
         <v>-1200</v>
       </c>
       <c r="L23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-800</v>
       </c>
       <c r="N23" s="3">
         <v>-800</v>
       </c>
       <c r="O23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1429,12 +1475,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1445,10 +1491,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,8 +1722,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1679,11 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1797,11 +1867,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1818,60 +1888,66 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,40 +2140,41 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2700</v>
       </c>
       <c r="N41" s="3">
         <v>2700</v>
@@ -2096,13 +2183,16 @@
         <v>2700</v>
       </c>
       <c r="P41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1100</v>
       </c>
       <c r="H43" s="3">
         <v>1100</v>
       </c>
       <c r="I43" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="J43" s="3">
         <v>1300</v>
       </c>
       <c r="K43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L43" s="3">
         <v>37300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>45500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>41100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>38800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2206,8 +2302,8 @@
       <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
+      <c r="F44" s="3">
+        <v>200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -2221,8 +2317,8 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2242,102 +2338,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E45" s="3">
         <v>65500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>54900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>49600</v>
       </c>
       <c r="J45" s="3">
         <v>49600</v>
       </c>
       <c r="K45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="L45" s="3">
         <v>11300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E46" s="3">
         <v>73600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>69100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>53000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>57800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>42100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>53000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>53500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>51900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>60900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>52500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>58900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>57700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,19 +2488,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4000</v>
       </c>
       <c r="G48" s="3">
         <v>4000</v>
@@ -2407,78 +2515,84 @@
         <v>4000</v>
       </c>
       <c r="J48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2100</v>
       </c>
       <c r="O48" s="3">
         <v>2100</v>
       </c>
       <c r="P48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E49" s="3">
         <v>5600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,16 +2688,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1800</v>
       </c>
       <c r="F52" s="3">
         <v>1800</v>
@@ -2595,7 +2715,7 @@
         <v>1800</v>
       </c>
       <c r="J52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K52" s="3">
         <v>1700</v>
@@ -2613,13 +2733,16 @@
         <v>1700</v>
       </c>
       <c r="P52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Q52" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E54" s="3">
         <v>86900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>82700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>50300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>61600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>61200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>62000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>65600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,31 +2880,32 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2783,39 +2914,42 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2832,8 +2966,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2844,102 +2978,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E59" s="3">
         <v>67500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>62600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>55900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>53900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E60" s="3">
         <v>68000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>51300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>58500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>54200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,17 +3090,17 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2985,22 +3128,25 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E62" s="3">
         <v>2500</v>
       </c>
       <c r="F62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G62" s="3">
         <v>2200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2300</v>
       </c>
       <c r="H62" s="3">
         <v>2300</v>
@@ -3009,31 +3155,34 @@
         <v>2300</v>
       </c>
       <c r="J62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K62" s="3">
         <v>2500</v>
       </c>
       <c r="L62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M62" s="3">
         <v>2600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E66" s="3">
         <v>70600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>66000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>59800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>51500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>58600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-65100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-65200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-64300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-60600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-57000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-56200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E76" s="3">
         <v>16300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +4035,7 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -3848,7 +4047,7 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>10500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1200</v>
       </c>
       <c r="L89" s="3">
         <v>-1200</v>
       </c>
       <c r="M89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4187,7 +4408,7 @@
         <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -4196,10 +4417,10 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -4208,22 +4429,25 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,10 +4555,10 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
@@ -4337,10 +4567,10 @@
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -4349,22 +4579,25 @@
         <v>-200</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,26 +4813,29 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4600,11 +4846,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4612,13 +4858,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E102" s="3">
         <v>10300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E8" s="3">
         <v>15200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E9" s="3">
         <v>11100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4900</v>
-      </c>
-      <c r="O9" s="3">
-        <v>5000</v>
       </c>
       <c r="P9" s="3">
         <v>5000</v>
       </c>
       <c r="Q9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R9" s="3">
         <v>4600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1600</v>
       </c>
       <c r="L10" s="3">
         <v>1600</v>
       </c>
       <c r="M10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N10" s="3">
         <v>1300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1500</v>
       </c>
       <c r="O10" s="3">
         <v>1500</v>
       </c>
       <c r="P10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,11 +1040,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1038,8 +1058,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1050,17 +1070,20 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1071,7 +1094,7 @@
         <v>600</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1083,7 +1106,7 @@
         <v>400</v>
       </c>
       <c r="J15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,43 +1152,44 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E17" s="3">
         <v>14900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>7300</v>
       </c>
       <c r="O17" s="3">
         <v>7300</v>
@@ -1171,63 +1198,69 @@
         <v>7300</v>
       </c>
       <c r="Q17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1200</v>
       </c>
       <c r="L18" s="3">
         <v>-1200</v>
       </c>
       <c r="M18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1100</v>
       </c>
       <c r="R18" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1270,11 +1304,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1291,54 +1325,57 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-700</v>
       </c>
       <c r="L21" s="3">
         <v>-700</v>
       </c>
       <c r="M21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="Q21" s="3">
         <v>-600</v>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1200</v>
       </c>
       <c r="L23" s="3">
         <v>-1200</v>
       </c>
       <c r="M23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-800</v>
       </c>
       <c r="O23" s="3">
         <v>-800</v>
       </c>
       <c r="P23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1100</v>
       </c>
       <c r="R23" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,7 +1501,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1478,12 +1524,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1494,10 +1540,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,8 +1786,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1743,11 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1870,11 +1940,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1891,63 +1961,69 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,43 +2227,44 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2700</v>
       </c>
       <c r="O41" s="3">
         <v>2700</v>
@@ -2186,13 +2273,16 @@
         <v>2700</v>
       </c>
       <c r="Q41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1100</v>
       </c>
       <c r="I43" s="3">
         <v>1100</v>
       </c>
       <c r="J43" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K43" s="3">
         <v>1300</v>
       </c>
       <c r="L43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M43" s="3">
         <v>37300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>45500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>36000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>41100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>38800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2305,8 +2401,8 @@
       <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
+      <c r="G44" s="3">
+        <v>200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2416,8 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2341,108 +2437,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E45" s="3">
         <v>54600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>65500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>54900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>49600</v>
       </c>
       <c r="K45" s="3">
         <v>49600</v>
       </c>
       <c r="L45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="M45" s="3">
         <v>11300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E46" s="3">
         <v>63600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>73600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>69100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>53000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>57800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>53000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>51900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>52400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>60900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>52500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>58900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>57700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,22 +2596,25 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E48" s="3">
         <v>6400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4000</v>
       </c>
       <c r="H48" s="3">
         <v>4000</v>
@@ -2518,81 +2626,87 @@
         <v>4000</v>
       </c>
       <c r="K48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L48" s="3">
         <v>4300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2100</v>
       </c>
       <c r="P48" s="3">
         <v>2100</v>
       </c>
       <c r="Q48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E49" s="3">
         <v>5100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,19 +2808,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1800</v>
       </c>
       <c r="G52" s="3">
         <v>1800</v>
@@ -2718,7 +2838,7 @@
         <v>1800</v>
       </c>
       <c r="K52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L52" s="3">
         <v>1700</v>
@@ -2736,13 +2856,16 @@
         <v>1700</v>
       </c>
       <c r="Q52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R52" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E54" s="3">
         <v>76900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>86900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>82700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>60800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>50300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>61600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>61200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>62000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>65600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,34 +3011,35 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -2917,22 +3048,25 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,17 +3076,17 @@
       <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2969,8 +3103,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2981,108 +3115,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E59" s="3">
         <v>56600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>62600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>55900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>53900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E60" s="3">
         <v>57300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>68000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>63500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>51700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>58500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>54200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3093,17 +3236,17 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3131,25 +3274,28 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2500</v>
       </c>
       <c r="F62" s="3">
         <v>2500</v>
       </c>
       <c r="G62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H62" s="3">
         <v>2200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2300</v>
       </c>
       <c r="I62" s="3">
         <v>2300</v>
@@ -3158,31 +3304,34 @@
         <v>2300</v>
       </c>
       <c r="K62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L62" s="3">
         <v>2500</v>
       </c>
       <c r="M62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N62" s="3">
         <v>2600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E66" s="3">
         <v>60100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>66000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>59800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-65800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-65100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-65200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-64300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-60600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-57000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E76" s="3">
         <v>16800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4038,7 +4237,7 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4050,7 +4249,7 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1200</v>
       </c>
       <c r="M89" s="3">
         <v>-1200</v>
       </c>
       <c r="N89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,13 +4616,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
@@ -4411,7 +4632,7 @@
         <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -4420,10 +4641,10 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -4432,22 +4653,25 @@
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,22 +4773,25 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-6200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -4570,10 +4800,10 @@
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
@@ -4582,22 +4812,25 @@
         <v>-200</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,29 +5059,32 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4849,11 +5095,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4861,13 +5107,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,270 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F8" s="3">
         <v>15800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>13500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>8100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F9" s="3">
         <v>11800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="3">
         <v>4000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>4100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1200</v>
       </c>
       <c r="S10" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,29 +1062,35 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1061,11 +1100,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1073,34 +1112,40 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
@@ -1109,10 +1154,10 @@
         <v>400</v>
       </c>
       <c r="K15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M15" s="3">
         <v>500</v>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>500</v>
+      </c>
+      <c r="U15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F17" s="3">
         <v>15600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>14900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>7300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>7300</v>
       </c>
       <c r="Q17" s="3">
         <v>7300</v>
       </c>
       <c r="R17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T17" s="3">
         <v>6900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,13 +1345,15 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1307,14 +1374,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1328,66 +1395,78 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>800</v>
+      </c>
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-900</v>
       </c>
       <c r="J21" s="3">
         <v>-500</v>
       </c>
       <c r="K21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-600</v>
       </c>
       <c r="S21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,20 +1476,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1439,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1300</v>
       </c>
       <c r="J23" s="3">
         <v>-900</v>
       </c>
       <c r="K23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1501,13 +1592,13 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1527,14 +1618,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1543,10 +1634,16 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-700</v>
       </c>
       <c r="G26" s="3">
         <v>200</v>
       </c>
       <c r="H26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-700</v>
       </c>
       <c r="G27" s="3">
         <v>200</v>
       </c>
       <c r="H27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1789,11 +1910,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1807,11 +1928,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,13 +2049,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1943,14 +2082,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1964,66 +2103,78 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-700</v>
       </c>
       <c r="G33" s="3">
         <v>200</v>
       </c>
       <c r="H33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-700</v>
       </c>
       <c r="G35" s="3">
         <v>200</v>
       </c>
       <c r="H35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2700</v>
       </c>
       <c r="Q41" s="3">
         <v>2700</v>
       </c>
       <c r="R41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2343,60 +2528,66 @@
         <v>4200</v>
       </c>
       <c r="E43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G43" s="3">
         <v>3200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>37300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>36400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>45500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>36000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>41100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>38800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2404,11 +2595,11 @@
       <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+      <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -2419,11 +2610,11 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2440,114 +2631,132 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>108600</v>
+      </c>
+      <c r="F45" s="3">
         <v>60600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>54600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>65500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>61000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>40400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>54900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>39200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>49600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>49600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>11300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>11500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>12700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>13800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>15000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>15400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>121300</v>
+      </c>
+      <c r="F46" s="3">
         <v>70900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>63600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>73600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>69100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>53000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>57800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>42100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>53000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>53500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>51900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>52400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>60900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>52500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>58900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>57700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,28 +2808,34 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
         <v>6400</v>
       </c>
       <c r="F48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H48" s="3">
         <v>6000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4000</v>
       </c>
       <c r="J48" s="3">
         <v>4000</v>
@@ -2629,84 +2844,96 @@
         <v>4000</v>
       </c>
       <c r="L48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N48" s="3">
         <v>4300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1900</v>
       </c>
       <c r="S48" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U48" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F49" s="3">
         <v>4600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>6000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,13 +3044,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700</v>
+        <v>10100</v>
       </c>
       <c r="E52" s="3">
         <v>1800</v>
@@ -2829,7 +3068,7 @@
         <v>1800</v>
       </c>
       <c r="H52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I52" s="3">
         <v>1800</v>
@@ -2841,10 +3080,10 @@
         <v>1800</v>
       </c>
       <c r="L52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N52" s="3">
         <v>1700</v>
@@ -2859,13 +3098,19 @@
         <v>1700</v>
       </c>
       <c r="R52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T52" s="3">
         <v>1600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>133700</v>
+      </c>
+      <c r="F54" s="3">
         <v>83900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>76900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>86900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>82700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>60800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>65800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>50300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>61600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>62500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>61200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>62000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>68200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>60200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>66900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>65600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3079,21 +3346,21 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3106,11 +3373,11 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3118,114 +3385,132 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>111000</v>
+      </c>
+      <c r="F59" s="3">
         <v>62600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>56600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>67500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>62600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>41800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>56400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>40700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>51300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>51000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>48700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>48600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>58200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>49600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>55900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>53900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>112500</v>
+      </c>
+      <c r="F60" s="3">
         <v>64000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>57300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>68000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>63500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>42600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>57100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>40900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>51700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>51300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>48900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>48800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>58500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>49900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>56100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>54200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3239,20 +3524,20 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3277,61 +3562,73 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2300</v>
       </c>
       <c r="K62" s="3">
         <v>2300</v>
       </c>
       <c r="L62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>115000</v>
+      </c>
+      <c r="F66" s="3">
         <v>66700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>60100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>70600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>66000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>45300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>59800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>43300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>54000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>53700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>51500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>51400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>58600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>49900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>56100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>54200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-65600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-65800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-65100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-65200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-64300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-63000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-62200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-60600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-59400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-58100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-57000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-55300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-54300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F76" s="3">
         <v>17200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>16800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>16700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>15500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>10800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-700</v>
       </c>
       <c r="G81" s="3">
         <v>200</v>
       </c>
       <c r="H81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,25 +4620,27 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -4252,10 +4649,10 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>500</v>
+      </c>
+      <c r="U83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F89" s="3">
         <v>6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>10500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-11900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>18100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-6200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,26 +5562,26 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>10200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5098,25 +5589,31 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,49 +5665,55 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F102" s="3">
         <v>5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>10300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>18700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q102" s="3">
         <v>-1000</v>
@@ -5219,6 +5722,12 @@
         <v>-1200</v>
       </c>
       <c r="S102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E8" s="3">
         <v>18100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4900</v>
-      </c>
-      <c r="R9" s="3">
-        <v>5000</v>
       </c>
       <c r="S9" s="3">
         <v>5000</v>
       </c>
       <c r="T9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U9" s="3">
         <v>4600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1600</v>
       </c>
       <c r="O10" s="3">
         <v>1600</v>
       </c>
       <c r="P10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1500</v>
       </c>
       <c r="R10" s="3">
         <v>1500</v>
       </c>
       <c r="S10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T10" s="3">
         <v>1300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,19 +1085,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1088,11 +1108,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1106,8 +1126,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1118,28 +1138,31 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
@@ -1148,7 +1171,7 @@
         <v>600</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
@@ -1160,7 +1183,7 @@
         <v>400</v>
       </c>
       <c r="M15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>500</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,52 +1232,53 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>18100</v>
       </c>
       <c r="E17" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F17" s="3">
         <v>17400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>7300</v>
       </c>
       <c r="R17" s="3">
         <v>7300</v>
@@ -1260,72 +1287,78 @@
         <v>7300</v>
       </c>
       <c r="T17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="U17" s="3">
         <v>6900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-1900</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1200</v>
       </c>
       <c r="O18" s="3">
         <v>-1200</v>
       </c>
       <c r="P18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1100</v>
       </c>
       <c r="U18" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1380,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1380,11 +1414,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1401,63 +1435,66 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-1100</v>
       </c>
       <c r="E21" s="3">
-        <v>800</v>
+        <v>-800</v>
       </c>
       <c r="F21" s="3">
         <v>800</v>
       </c>
       <c r="G21" s="3">
+        <v>800</v>
+      </c>
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-700</v>
       </c>
       <c r="O21" s="3">
         <v>-700</v>
       </c>
       <c r="P21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="T21" s="3">
         <v>-600</v>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1476,8 +1516,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1491,8 +1531,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1200</v>
       </c>
       <c r="O23" s="3">
         <v>-1200</v>
       </c>
       <c r="P23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-800</v>
       </c>
       <c r="R23" s="3">
         <v>-800</v>
       </c>
       <c r="S23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-1100</v>
       </c>
       <c r="U23" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,16 +1638,16 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1624,12 +1670,12 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1640,10 +1686,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-1900</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-1900</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1916,8 +1977,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1934,11 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2122,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2088,11 +2158,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2109,72 +2179,78 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-1900</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-1900</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,52 +2487,53 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4500</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>2700</v>
       </c>
       <c r="R41" s="3">
         <v>2700</v>
@@ -2455,13 +2542,16 @@
         <v>2700</v>
       </c>
       <c r="T41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U41" s="3">
         <v>3500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,78 +2609,84 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1100</v>
       </c>
       <c r="L43" s="3">
         <v>1100</v>
       </c>
       <c r="M43" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="N43" s="3">
         <v>1300</v>
       </c>
       <c r="O43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P43" s="3">
         <v>37300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>36400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>45500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>36000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>41100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>38800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -2601,8 +2697,8 @@
       <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+      <c r="J44" s="3">
+        <v>200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -2616,8 +2712,8 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2637,126 +2733,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E45" s="3">
         <v>87900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>108600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>60600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>54600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>61000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>49600</v>
       </c>
       <c r="N45" s="3">
         <v>49600</v>
       </c>
       <c r="O45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="P45" s="3">
         <v>11300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E46" s="3">
         <v>100100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>121300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>70900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>73600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>69100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>53000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>57800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>53000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>51900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>52400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>60900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>52500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>58900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>57700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,31 +2919,34 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E48" s="3">
         <v>6100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4000</v>
       </c>
       <c r="K48" s="3">
         <v>4000</v>
@@ -2850,90 +2958,96 @@
         <v>4000</v>
       </c>
       <c r="N48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O48" s="3">
         <v>4300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2100</v>
       </c>
       <c r="S48" s="3">
         <v>2100</v>
       </c>
       <c r="T48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,28 +3167,31 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10100</v>
+        <v>1800</v>
       </c>
       <c r="E52" s="3">
         <v>1800</v>
       </c>
       <c r="F52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1800</v>
       </c>
       <c r="J52" s="3">
         <v>1800</v>
@@ -3086,7 +3206,7 @@
         <v>1800</v>
       </c>
       <c r="N52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="O52" s="3">
         <v>1700</v>
@@ -3104,13 +3224,16 @@
         <v>1700</v>
       </c>
       <c r="T52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="U52" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E54" s="3">
         <v>111800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>133700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>83900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>86900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>61600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>62500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>62000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>66900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>65600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,43 +3403,44 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -3318,27 +3449,30 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3352,17 +3486,17 @@
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3379,8 +3513,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3391,126 +3525,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E59" s="3">
         <v>90600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>111000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>62600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>58200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>49600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>55900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>53900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E60" s="3">
         <v>91800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>112500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>68000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>63500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>51700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>51300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>48900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>48800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>58500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>49900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>56100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>54200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3530,17 +3673,17 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3568,34 +3711,37 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2500</v>
       </c>
       <c r="I62" s="3">
         <v>2500</v>
       </c>
       <c r="J62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2300</v>
       </c>
       <c r="L62" s="3">
         <v>2300</v>
@@ -3604,31 +3750,34 @@
         <v>2300</v>
       </c>
       <c r="N62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="O62" s="3">
         <v>2500</v>
       </c>
       <c r="P62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E66" s="3">
         <v>94200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>115000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>66700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>70600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>53700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>51500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>56100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>54200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-65400</v>
       </c>
       <c r="F72" s="3">
         <v>-65400</v>
       </c>
       <c r="G72" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-65600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-65800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-65100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-64300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-63000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-62200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-60600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-59400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-58100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-57000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-56200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-54300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E76" s="3">
         <v>17500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-1900</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,19 +4820,20 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
@@ -4643,7 +4842,7 @@
         <v>600</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -4655,7 +4854,7 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1200</v>
       </c>
       <c r="P89" s="3">
         <v>-1200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,22 +5278,23 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
@@ -5082,7 +5303,7 @@
         <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -5091,10 +5312,10 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
@@ -5103,22 +5324,25 @@
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,31 +5462,34 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-6200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -5268,10 +5498,10 @@
         <v>-200</v>
       </c>
       <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
@@ -5280,22 +5510,25 @@
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,38 +5796,41 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5595,11 +5841,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5607,13 +5853,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E8" s="3">
         <v>16200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E9" s="3">
         <v>13000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4900</v>
-      </c>
-      <c r="S9" s="3">
-        <v>5000</v>
       </c>
       <c r="T9" s="3">
         <v>5000</v>
       </c>
       <c r="U9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V9" s="3">
         <v>4600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1600</v>
       </c>
       <c r="P10" s="3">
         <v>1600</v>
       </c>
       <c r="Q10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R10" s="3">
         <v>1300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1500</v>
       </c>
       <c r="S10" s="3">
         <v>1500</v>
       </c>
       <c r="T10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,11 +1119,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1111,12 +1131,12 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1129,8 +1149,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1141,31 +1161,34 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>600</v>
@@ -1174,7 +1197,7 @@
         <v>600</v>
       </c>
       <c r="J15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1186,7 +1209,7 @@
         <v>400</v>
       </c>
       <c r="N15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>500</v>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,55 +1259,56 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>18100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>7300</v>
       </c>
       <c r="S17" s="3">
         <v>7300</v>
@@ -1290,75 +1317,81 @@
         <v>7300</v>
       </c>
       <c r="U17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="V17" s="3">
         <v>6900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1200</v>
       </c>
       <c r="P18" s="3">
         <v>-1200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1100</v>
       </c>
       <c r="V18" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,13 +1414,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1417,11 +1451,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1438,66 +1472,69 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>800</v>
       </c>
       <c r="G21" s="3">
         <v>800</v>
       </c>
       <c r="H21" s="3">
+        <v>800</v>
+      </c>
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-700</v>
       </c>
       <c r="P21" s="3">
         <v>-700</v>
       </c>
       <c r="Q21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R21" s="3">
         <v>-600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>-600</v>
@@ -1505,13 +1542,16 @@
       <c r="V21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1519,8 +1559,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1534,8 +1574,8 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1200</v>
       </c>
       <c r="P23" s="3">
         <v>-1200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-800</v>
       </c>
       <c r="S23" s="3">
         <v>-800</v>
       </c>
       <c r="T23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-1100</v>
       </c>
       <c r="V23" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,16 +1687,16 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1673,11 +1719,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1689,10 +1735,13 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1980,8 +2041,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1998,11 +2059,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,13 +2192,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2161,11 +2231,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2182,75 +2252,81 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,55 +2574,56 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4500</v>
-      </c>
-      <c r="R41" s="3">
-        <v>2700</v>
       </c>
       <c r="S41" s="3">
         <v>2700</v>
@@ -2545,13 +2632,16 @@
         <v>2700</v>
       </c>
       <c r="U41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V41" s="3">
         <v>3500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,84 +2702,90 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1100</v>
       </c>
       <c r="M43" s="3">
         <v>1100</v>
       </c>
       <c r="N43" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="O43" s="3">
         <v>1300</v>
       </c>
       <c r="P43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>37300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>36400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>45500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>36000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>41100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>38800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2700,8 +2796,8 @@
       <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="K44" s="3">
+        <v>200</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -2715,8 +2811,8 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2736,132 +2832,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E45" s="3">
         <v>61100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>87900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>108600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>60600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>54600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>65500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>61000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>49600</v>
       </c>
       <c r="O45" s="3">
         <v>49600</v>
       </c>
       <c r="P45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="Q45" s="3">
         <v>11300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E46" s="3">
         <v>70600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>121300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>70900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>63600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>73600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>69100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>57800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>51900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>52400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>60900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>52500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>58900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>57700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,34 +3027,37 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E48" s="3">
         <v>6500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4000</v>
       </c>
       <c r="L48" s="3">
         <v>4000</v>
@@ -2961,93 +3069,99 @@
         <v>4000</v>
       </c>
       <c r="O48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P48" s="3">
         <v>4300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2100</v>
       </c>
       <c r="T48" s="3">
         <v>2100</v>
       </c>
       <c r="U48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,13 +3287,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>9500</v>
       </c>
       <c r="E52" s="3">
         <v>1800</v>
@@ -3185,16 +3305,16 @@
         <v>1800</v>
       </c>
       <c r="G52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1800</v>
       </c>
       <c r="K52" s="3">
         <v>1800</v>
@@ -3209,7 +3329,7 @@
         <v>1800</v>
       </c>
       <c r="O52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P52" s="3">
         <v>1700</v>
@@ -3227,13 +3347,16 @@
         <v>1700</v>
       </c>
       <c r="U52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="V52" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E54" s="3">
         <v>82200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>111800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>133700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>76900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>86900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>50300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>61600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>62500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>62000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>66900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>65600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,46 +3534,47 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3452,30 +3583,33 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3489,18 +3623,18 @@
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3516,8 +3650,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3528,137 +3662,146 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E59" s="3">
         <v>63100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>90600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>111000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>62600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>62600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>58200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>49600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>55900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>53900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E60" s="3">
         <v>63800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>91800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>112500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>68000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>63500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>51700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>51300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>48900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>58500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>49900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>56100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>54200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3676,17 +3819,17 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3714,37 +3857,40 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2500</v>
       </c>
       <c r="J62" s="3">
         <v>2500</v>
       </c>
       <c r="K62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L62" s="3">
         <v>2200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2300</v>
       </c>
       <c r="M62" s="3">
         <v>2300</v>
@@ -3753,31 +3899,34 @@
         <v>2300</v>
       </c>
       <c r="O62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="P62" s="3">
         <v>2500</v>
       </c>
       <c r="Q62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R62" s="3">
         <v>2600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E66" s="3">
         <v>66600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>94200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>115000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>66700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>70600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>66000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>53700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>58600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>56100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>54200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-65400</v>
       </c>
       <c r="G72" s="3">
         <v>-65400</v>
       </c>
       <c r="H72" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-65600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-65800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-64300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-63000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-60600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-59400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-58100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-57000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-56200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-54300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,22 +5019,23 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
@@ -4845,7 +5044,7 @@
         <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -4857,7 +5056,7 @@
         <v>400</v>
       </c>
       <c r="N83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q89" s="3">
         <v>-1200</v>
       </c>
       <c r="R89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,25 +5499,26 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -5306,7 +5527,7 @@
         <v>-300</v>
       </c>
       <c r="K91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -5315,10 +5536,10 @@
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
@@ -5327,22 +5548,25 @@
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,34 +5692,37 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
@@ -5501,10 +5731,10 @@
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
@@ -5513,22 +5743,25 @@
         <v>-200</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,41 +6042,44 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5844,11 +6090,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5856,13 +6102,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E8" s="3">
         <v>16400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4900</v>
-      </c>
-      <c r="T9" s="3">
-        <v>5000</v>
       </c>
       <c r="U9" s="3">
         <v>5000</v>
       </c>
       <c r="V9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="W9" s="3">
         <v>4600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1600</v>
       </c>
       <c r="Q10" s="3">
         <v>1600</v>
       </c>
       <c r="R10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S10" s="3">
         <v>1300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1500</v>
       </c>
       <c r="T10" s="3">
         <v>1500</v>
       </c>
       <c r="U10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V10" s="3">
         <v>1300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,11 +1141,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1134,11 +1153,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-800</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1152,8 +1171,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1164,17 +1183,20 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,16 +1204,16 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>600</v>
@@ -1200,7 +1222,7 @@
         <v>600</v>
       </c>
       <c r="K15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L15" s="3">
         <v>400</v>
@@ -1212,7 +1234,7 @@
         <v>400</v>
       </c>
       <c r="O15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P15" s="3">
         <v>500</v>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,58 +1285,59 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>18800</v>
       </c>
       <c r="E17" s="3">
         <v>18100</v>
       </c>
       <c r="F17" s="3">
+        <v>18100</v>
+      </c>
+      <c r="G17" s="3">
         <v>19700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>7300</v>
       </c>
       <c r="T17" s="3">
         <v>7300</v>
@@ -1320,78 +1346,84 @@
         <v>7300</v>
       </c>
       <c r="V17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="W17" s="3">
         <v>6900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q18" s="3">
         <v>-1200</v>
       </c>
       <c r="R18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-1100</v>
       </c>
       <c r="W18" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1454,11 +1487,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1475,69 +1508,72 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>500</v>
       </c>
       <c r="E21" s="3">
         <v>-1100</v>
       </c>
       <c r="F21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>800</v>
       </c>
       <c r="H21" s="3">
         <v>800</v>
       </c>
       <c r="I21" s="3">
+        <v>800</v>
+      </c>
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-700</v>
       </c>
       <c r="Q21" s="3">
         <v>-700</v>
       </c>
       <c r="R21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-300</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
       <c r="U21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="V21" s="3">
         <v>-600</v>
@@ -1545,13 +1581,16 @@
       <c r="W21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1562,8 +1601,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1577,8 +1616,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1610,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q23" s="3">
         <v>-1200</v>
       </c>
       <c r="R23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-800</v>
       </c>
       <c r="T23" s="3">
         <v>-800</v>
       </c>
       <c r="U23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-1100</v>
       </c>
       <c r="W23" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,16 +1735,16 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1722,12 +1767,12 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1738,10 +1783,13 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2044,8 +2104,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2062,11 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2234,11 +2303,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2255,78 +2324,84 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,58 +2660,59 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4500</v>
-      </c>
-      <c r="S41" s="3">
-        <v>2700</v>
       </c>
       <c r="T41" s="3">
         <v>2700</v>
@@ -2635,13 +2721,16 @@
         <v>2700</v>
       </c>
       <c r="V41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W41" s="3">
         <v>3500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,90 +2794,96 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1100</v>
       </c>
       <c r="N43" s="3">
         <v>1100</v>
       </c>
       <c r="O43" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="P43" s="3">
         <v>1300</v>
       </c>
       <c r="Q43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R43" s="3">
         <v>37300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>36400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>45500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>36000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>41100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>38800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>400</v>
       </c>
       <c r="G44" s="3">
         <v>400</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -2799,8 +2894,8 @@
       <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>200</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
@@ -2814,8 +2909,8 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2835,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E45" s="3">
         <v>72800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>87900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>108600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>60600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>54600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>65500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>49600</v>
       </c>
       <c r="P45" s="3">
         <v>49600</v>
       </c>
       <c r="Q45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="R45" s="3">
         <v>11300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E46" s="3">
         <v>81400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>70600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>121300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>70900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>73600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>69100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>53000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>57800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>53500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>51900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>52400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>60900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>52500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>58900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>57700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,37 +3134,40 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4000</v>
       </c>
       <c r="M48" s="3">
         <v>4000</v>
@@ -3072,96 +3179,102 @@
         <v>4000</v>
       </c>
       <c r="P48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2100</v>
       </c>
       <c r="U48" s="3">
         <v>2100</v>
       </c>
       <c r="V48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E49" s="3">
         <v>2800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,16 +3406,19 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9500</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F52" s="3">
         <v>1800</v>
@@ -3308,16 +3427,16 @@
         <v>1800</v>
       </c>
       <c r="H52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1800</v>
       </c>
       <c r="L52" s="3">
         <v>1800</v>
@@ -3332,7 +3451,7 @@
         <v>1800</v>
       </c>
       <c r="P52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Q52" s="3">
         <v>1700</v>
@@ -3350,13 +3469,16 @@
         <v>1700</v>
       </c>
       <c r="V52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="W52" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E54" s="3">
         <v>92400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>82200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>111800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>133700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>76900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>86900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>50300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>62500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>62000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>68200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>66900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>65600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,49 +3664,50 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3586,22 +3716,25 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3609,10 +3742,10 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3626,17 +3759,17 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3653,8 +3786,8 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3665,138 +3798,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E59" s="3">
         <v>75200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>90600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>111000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>67500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>62600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>56400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>58200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>49600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>55900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>53900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E60" s="3">
         <v>75800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>91800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>112500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>57300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>63500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>51700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>51300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>58500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>49900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>56100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>54200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3804,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3822,17 +3964,17 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3860,40 +4002,43 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2500</v>
       </c>
       <c r="K62" s="3">
         <v>2500</v>
       </c>
       <c r="L62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M62" s="3">
         <v>2200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2300</v>
       </c>
       <c r="N62" s="3">
         <v>2300</v>
@@ -3902,31 +4047,34 @@
         <v>2300</v>
       </c>
       <c r="P62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="Q62" s="3">
         <v>2500</v>
       </c>
       <c r="R62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S62" s="3">
         <v>2600</v>
-      </c>
-      <c r="S62" s="3">
-        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E66" s="3">
         <v>78400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>66600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>94200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>115000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>60100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>70600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>53700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>51400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>58600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>56100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>54200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-67000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-65400</v>
       </c>
       <c r="H72" s="3">
         <v>-65400</v>
       </c>
       <c r="I72" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-65600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-63000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-60600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-59400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-58100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-57000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-56200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-55300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-54300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E76" s="3">
         <v>14000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5029,16 +5227,16 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
@@ -5047,7 +5245,7 @@
         <v>600</v>
       </c>
       <c r="K83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
@@ -5059,7 +5257,7 @@
         <v>400</v>
       </c>
       <c r="O83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>500</v>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-1200</v>
       </c>
       <c r="R89" s="3">
         <v>-1200</v>
       </c>
       <c r="S89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5509,19 +5729,19 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
@@ -5530,7 +5750,7 @@
         <v>-300</v>
       </c>
       <c r="L91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
@@ -5539,10 +5759,10 @@
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
@@ -5551,22 +5771,25 @@
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5704,28 +5933,28 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
       </c>
       <c r="K94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L94" s="3">
         <v>-6200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
@@ -5734,10 +5963,10 @@
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
@@ -5746,22 +5975,25 @@
         <v>-200</v>
       </c>
       <c r="S94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,44 +6287,47 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -6093,11 +6338,11 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6105,13 +6350,16 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E8" s="3">
         <v>18700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E9" s="3">
         <v>14000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4900</v>
-      </c>
-      <c r="U9" s="3">
-        <v>5000</v>
       </c>
       <c r="V9" s="3">
         <v>5000</v>
       </c>
       <c r="W9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X9" s="3">
         <v>4600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E10" s="3">
         <v>4700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1600</v>
       </c>
       <c r="R10" s="3">
         <v>1600</v>
       </c>
       <c r="S10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T10" s="3">
         <v>1300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1500</v>
       </c>
       <c r="U10" s="3">
         <v>1500</v>
       </c>
       <c r="V10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W10" s="3">
         <v>1300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1144,11 +1164,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1156,11 +1176,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-800</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1174,8 +1194,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1186,37 +1206,40 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
       </c>
       <c r="F15" s="3">
+        <v>600</v>
+      </c>
+      <c r="G15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
@@ -1225,7 +1248,7 @@
         <v>600</v>
       </c>
       <c r="L15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
@@ -1237,7 +1260,7 @@
         <v>400</v>
       </c>
       <c r="P15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q15" s="3">
         <v>500</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,61 +1312,62 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E17" s="3">
         <v>18800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>18100</v>
       </c>
       <c r="F17" s="3">
         <v>18100</v>
       </c>
       <c r="G17" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H17" s="3">
         <v>19700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>7300</v>
       </c>
       <c r="U17" s="3">
         <v>7300</v>
@@ -1349,81 +1376,87 @@
         <v>7300</v>
       </c>
       <c r="W17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="X17" s="3">
         <v>6900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1200</v>
       </c>
       <c r="R18" s="3">
         <v>-1200</v>
       </c>
       <c r="S18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-1100</v>
       </c>
       <c r="X18" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,13 +1481,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1490,11 +1524,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1511,72 +1545,75 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-1100</v>
       </c>
       <c r="F21" s="3">
         <v>-1100</v>
       </c>
       <c r="G21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>800</v>
       </c>
       <c r="I21" s="3">
         <v>800</v>
       </c>
       <c r="J21" s="3">
+        <v>800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-700</v>
       </c>
       <c r="R21" s="3">
         <v>-700</v>
       </c>
       <c r="S21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T21" s="3">
         <v>-600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
       </c>
       <c r="V21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="W21" s="3">
         <v>-600</v>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1604,8 +1644,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1619,8 +1659,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1200</v>
       </c>
       <c r="R23" s="3">
         <v>-1200</v>
       </c>
       <c r="S23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-800</v>
       </c>
       <c r="U23" s="3">
         <v>-800</v>
       </c>
       <c r="V23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-1100</v>
       </c>
       <c r="X23" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,16 +1784,16 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1770,12 +1816,12 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1786,10 +1832,13 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2107,8 +2168,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2125,11 +2186,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,13 +2331,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2306,11 +2376,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2327,81 +2397,87 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,61 +2747,62 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4500</v>
-      </c>
-      <c r="T41" s="3">
-        <v>2700</v>
       </c>
       <c r="U41" s="3">
         <v>2700</v>
@@ -2724,13 +2811,16 @@
         <v>2700</v>
       </c>
       <c r="W41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X41" s="3">
         <v>3500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
         <v>4400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1100</v>
       </c>
       <c r="O43" s="3">
         <v>1100</v>
       </c>
       <c r="P43" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="Q43" s="3">
         <v>1300</v>
       </c>
       <c r="R43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S43" s="3">
         <v>37300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>36400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>45500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>36000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>41100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>38800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2874,19 +2970,19 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -2897,8 +2993,8 @@
       <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
+      <c r="M44" s="3">
+        <v>200</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
@@ -2912,8 +3008,8 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2933,144 +3029,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E45" s="3">
         <v>76800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>72800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>87900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>108600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>60600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>54600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>49600</v>
       </c>
       <c r="Q45" s="3">
         <v>49600</v>
       </c>
       <c r="R45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="S45" s="3">
         <v>11300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>15400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E46" s="3">
         <v>87400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>81400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>70600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>121300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>70900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>69100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>53000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>57800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>53000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>53500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>51900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>52400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>60900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>52500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>58900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>57700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,31 +3254,31 @@
         <v>6000</v>
       </c>
       <c r="E48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F48" s="3">
         <v>6300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4000</v>
       </c>
       <c r="N48" s="3">
         <v>4000</v>
@@ -3182,99 +3290,105 @@
         <v>4000</v>
       </c>
       <c r="Q48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R48" s="3">
         <v>4300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2100</v>
       </c>
       <c r="V48" s="3">
         <v>2100</v>
       </c>
       <c r="W48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X48" s="3">
         <v>1900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E49" s="3">
         <v>2600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,7 +3541,7 @@
         <v>1900</v>
       </c>
       <c r="F52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G52" s="3">
         <v>1800</v>
@@ -3430,16 +3550,16 @@
         <v>1800</v>
       </c>
       <c r="I52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1800</v>
       </c>
       <c r="M52" s="3">
         <v>1800</v>
@@ -3454,7 +3574,7 @@
         <v>1800</v>
       </c>
       <c r="Q52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="R52" s="3">
         <v>1700</v>
@@ -3472,13 +3592,16 @@
         <v>1700</v>
       </c>
       <c r="W52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="X52" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E54" s="3">
         <v>97900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>82200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>111800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>133700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>83900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>76900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>86900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>50300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>62500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>62000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>68200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>66900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>65600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,43 +3805,43 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3719,22 +3850,25 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3745,10 +3879,10 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3762,17 +3896,17 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3789,8 +3923,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3801,144 +3935,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E59" s="3">
         <v>80700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>75200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>63100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>90600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>111000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>56600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>62600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>56400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>58200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>49600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>55900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>53900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E60" s="3">
         <v>81600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>63800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>91800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>112500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>57300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>57100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>40900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>51700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>51300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>58500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>49900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>56100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>54200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -3967,17 +4110,17 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4005,43 +4148,46 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2500</v>
       </c>
       <c r="L62" s="3">
         <v>2500</v>
       </c>
       <c r="M62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N62" s="3">
         <v>2200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2300</v>
       </c>
       <c r="O62" s="3">
         <v>2300</v>
@@ -4050,31 +4196,34 @@
         <v>2300</v>
       </c>
       <c r="Q62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="R62" s="3">
         <v>2500</v>
       </c>
       <c r="S62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T62" s="3">
         <v>2600</v>
-      </c>
-      <c r="T62" s="3">
-        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E66" s="3">
         <v>84000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>66600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>94200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>115000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>60100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>53700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>51500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>51400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>58600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>56100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>54200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-67000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-65400</v>
       </c>
       <c r="I72" s="3">
         <v>-65400</v>
       </c>
       <c r="J72" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-65600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-65200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-63000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-62200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-60600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-59400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-58100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-57000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-56200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-55300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-54300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E76" s="3">
         <v>13900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,28 +5416,29 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
       </c>
       <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
@@ -5248,7 +5447,7 @@
         <v>600</v>
       </c>
       <c r="L83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
@@ -5260,7 +5459,7 @@
         <v>400</v>
       </c>
       <c r="P83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>500</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-1200</v>
       </c>
       <c r="S89" s="3">
         <v>-1200</v>
       </c>
       <c r="T89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5732,19 +5953,19 @@
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
@@ -5753,7 +5974,7 @@
         <v>-300</v>
       </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -5762,10 +5983,10 @@
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
@@ -5774,22 +5995,25 @@
         <v>-200</v>
       </c>
       <c r="T91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5936,28 +6166,28 @@
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-300</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
       </c>
       <c r="L94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M94" s="3">
         <v>-6200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
@@ -5966,10 +6196,10 @@
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-200</v>
       </c>
       <c r="R94" s="3">
         <v>-200</v>
@@ -5978,22 +6208,25 @@
         <v>-200</v>
       </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,47 +6533,50 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6341,11 +6587,11 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6353,13 +6599,16 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E8" s="3">
         <v>21400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E9" s="3">
         <v>16500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4900</v>
-      </c>
-      <c r="V9" s="3">
-        <v>5000</v>
       </c>
       <c r="W9" s="3">
         <v>5000</v>
       </c>
       <c r="X9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Y9" s="3">
         <v>4600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1600</v>
       </c>
       <c r="S10" s="3">
         <v>1600</v>
       </c>
       <c r="T10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U10" s="3">
         <v>1300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1500</v>
       </c>
       <c r="V10" s="3">
         <v>1500</v>
       </c>
       <c r="W10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X10" s="3">
         <v>1300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1167,11 +1187,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1179,11 +1199,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-800</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1197,8 +1217,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1209,17 +1229,20 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1227,22 +1250,22 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
       </c>
       <c r="G15" s="3">
+        <v>600</v>
+      </c>
+      <c r="H15" s="3">
         <v>800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -1251,7 +1274,7 @@
         <v>600</v>
       </c>
       <c r="M15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
@@ -1263,7 +1286,7 @@
         <v>400</v>
       </c>
       <c r="Q15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R15" s="3">
         <v>500</v>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,64 +1339,65 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E17" s="3">
         <v>21400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>18100</v>
       </c>
       <c r="G17" s="3">
         <v>18100</v>
       </c>
       <c r="H17" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I17" s="3">
         <v>19700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7700</v>
-      </c>
-      <c r="U17" s="3">
-        <v>7300</v>
       </c>
       <c r="V17" s="3">
         <v>7300</v>
@@ -1379,84 +1406,90 @@
         <v>7300</v>
       </c>
       <c r="X17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>6900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1200</v>
       </c>
       <c r="S18" s="3">
         <v>-1200</v>
       </c>
       <c r="T18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-1100</v>
       </c>
       <c r="Y18" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,17 +1515,18 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1527,11 +1561,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1548,75 +1582,78 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1100</v>
       </c>
       <c r="G21" s="3">
         <v>-1100</v>
       </c>
       <c r="H21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>800</v>
       </c>
       <c r="J21" s="3">
         <v>800</v>
       </c>
       <c r="K21" s="3">
+        <v>800</v>
+      </c>
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-700</v>
       </c>
       <c r="S21" s="3">
         <v>-700</v>
       </c>
       <c r="T21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U21" s="3">
         <v>-600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-300</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
       </c>
       <c r="W21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="X21" s="3">
         <v>-600</v>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1647,8 +1687,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1662,8 +1702,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1200</v>
       </c>
       <c r="S23" s="3">
         <v>-1200</v>
       </c>
       <c r="T23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-800</v>
       </c>
       <c r="V23" s="3">
         <v>-800</v>
       </c>
       <c r="W23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-1100</v>
       </c>
       <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1787,16 +1833,16 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1819,12 +1865,12 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1835,10 +1881,13 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2171,8 +2232,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2189,11 +2250,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,17 +2401,20 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2379,11 +2449,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2400,84 +2470,90 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,64 +2834,65 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4500</v>
-      </c>
-      <c r="U41" s="3">
-        <v>2700</v>
       </c>
       <c r="V41" s="3">
         <v>2700</v>
@@ -2814,13 +2901,16 @@
         <v>2700</v>
       </c>
       <c r="X41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Y41" s="3">
         <v>3500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2899,70 +2992,73 @@
         <v>5200</v>
       </c>
       <c r="E43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F43" s="3">
         <v>4400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1100</v>
       </c>
       <c r="P43" s="3">
         <v>1100</v>
       </c>
       <c r="Q43" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="R43" s="3">
         <v>1300</v>
       </c>
       <c r="S43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T43" s="3">
         <v>37300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>36400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>45500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>36000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>41100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>38800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2973,19 +3069,19 @@
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>400</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -2996,8 +3092,8 @@
       <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
+      <c r="N44" s="3">
+        <v>200</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
@@ -3011,8 +3107,8 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3032,150 +3128,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E45" s="3">
         <v>68200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>76800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>72800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>61100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>87900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>108600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>60600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>61000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>49600</v>
       </c>
       <c r="R45" s="3">
         <v>49600</v>
       </c>
       <c r="S45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="T45" s="3">
         <v>11300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>15000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>15400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E46" s="3">
         <v>80700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>87400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>81400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>70600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>121300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>70900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>63600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>69100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>53000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>57800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>53000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>53500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>51900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>52400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>60900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>52500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>58900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>57700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,43 +3350,46 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="E48" s="3">
         <v>6000</v>
       </c>
       <c r="F48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G48" s="3">
         <v>6300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4000</v>
       </c>
       <c r="O48" s="3">
         <v>4000</v>
@@ -3293,102 +3401,108 @@
         <v>4000</v>
       </c>
       <c r="R48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S48" s="3">
         <v>4300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2100</v>
       </c>
       <c r="W48" s="3">
         <v>2100</v>
       </c>
       <c r="X48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3544,7 +3664,7 @@
         <v>1900</v>
       </c>
       <c r="G52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H52" s="3">
         <v>1800</v>
@@ -3553,16 +3673,16 @@
         <v>1800</v>
       </c>
       <c r="J52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1800</v>
       </c>
       <c r="N52" s="3">
         <v>1800</v>
@@ -3577,7 +3697,7 @@
         <v>1800</v>
       </c>
       <c r="R52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="S52" s="3">
         <v>1700</v>
@@ -3595,13 +3715,16 @@
         <v>1700</v>
       </c>
       <c r="X52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Y52" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E54" s="3">
         <v>90900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>82200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>111800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>133700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>83900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>86900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>50300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>62500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>61200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>62000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>68200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>66900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>65600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3808,43 +3939,43 @@
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -3853,27 +3984,30 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3882,10 +4016,10 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3899,17 +4033,17 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3926,8 +4060,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -3938,150 +4072,159 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E59" s="3">
         <v>73100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>80700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>75200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>63100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>90600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>111000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>62600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>62600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>56400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>58200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>49600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>55900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>53900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E60" s="3">
         <v>74000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>81600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>63800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>91800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>112500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>63500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>57100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>40900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>51700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>51300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>48800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>58500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>49900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>56100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>54200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4095,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -4113,17 +4256,17 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4151,46 +4294,49 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2500</v>
       </c>
       <c r="M62" s="3">
         <v>2500</v>
       </c>
       <c r="N62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O62" s="3">
         <v>2200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2300</v>
       </c>
       <c r="P62" s="3">
         <v>2300</v>
@@ -4199,31 +4345,34 @@
         <v>2300</v>
       </c>
       <c r="R62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="S62" s="3">
         <v>2500</v>
       </c>
       <c r="T62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U62" s="3">
         <v>2600</v>
-      </c>
-      <c r="U62" s="3">
-        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
       </c>
       <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E66" s="3">
         <v>76400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>84000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>66600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>94200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>115000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>66700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>53700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>51500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>51400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>58600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>56100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>54200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-65400</v>
       </c>
       <c r="J72" s="3">
         <v>-65400</v>
       </c>
       <c r="K72" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-65600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-65100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-65200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-64300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-62200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-60600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-59400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-58100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-57000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-56200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-55300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-54300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E76" s="3">
         <v>14400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,22 +5625,22 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -5450,7 +5649,7 @@
         <v>600</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
@@ -5462,7 +5661,7 @@
         <v>400</v>
       </c>
       <c r="Q83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R83" s="3">
         <v>500</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-1200</v>
       </c>
       <c r="T89" s="3">
         <v>-1200</v>
       </c>
       <c r="U89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5956,19 +6177,19 @@
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-300</v>
@@ -5977,7 +6198,7 @@
         <v>-300</v>
       </c>
       <c r="N91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
@@ -5986,10 +6207,10 @@
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-200</v>
       </c>
       <c r="S91" s="3">
         <v>-200</v>
@@ -5998,22 +6219,25 @@
         <v>-200</v>
       </c>
       <c r="U91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6169,28 +6399,28 @@
         <v>-200</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-300</v>
       </c>
       <c r="L94" s="3">
         <v>-300</v>
       </c>
       <c r="M94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N94" s="3">
         <v>-6200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
@@ -6199,10 +6429,10 @@
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-200</v>
       </c>
       <c r="S94" s="3">
         <v>-200</v>
@@ -6211,22 +6441,25 @@
         <v>-200</v>
       </c>
       <c r="U94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6545,41 +6791,41 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6590,11 +6836,11 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6602,13 +6848,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/USIO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>USIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,193 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E8" s="3">
         <v>21300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,147 +859,153 @@
         <v>16300</v>
       </c>
       <c r="E9" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F9" s="3">
         <v>16500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4900</v>
-      </c>
-      <c r="W9" s="3">
-        <v>5000</v>
       </c>
       <c r="X9" s="3">
         <v>5000</v>
       </c>
       <c r="Y9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Z9" s="3">
         <v>4600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1600</v>
       </c>
       <c r="T10" s="3">
         <v>1600</v>
       </c>
       <c r="U10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V10" s="3">
         <v>1300</v>
-      </c>
-      <c r="V10" s="3">
-        <v>1500</v>
       </c>
       <c r="W10" s="3">
         <v>1500</v>
       </c>
       <c r="X10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1190,11 +1210,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1202,11 +1222,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-800</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1220,8 +1240,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1232,17 +1252,20 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1253,22 +1276,22 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
       </c>
       <c r="H15" s="3">
+        <v>600</v>
+      </c>
+      <c r="I15" s="3">
         <v>800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>600</v>
       </c>
       <c r="L15" s="3">
         <v>600</v>
@@ -1277,7 +1300,7 @@
         <v>600</v>
       </c>
       <c r="N15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
@@ -1289,7 +1312,7 @@
         <v>400</v>
       </c>
       <c r="R15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S15" s="3">
         <v>500</v>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,67 +1366,68 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E17" s="3">
         <v>21200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>18100</v>
       </c>
       <c r="H17" s="3">
         <v>18100</v>
       </c>
       <c r="I17" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J17" s="3">
         <v>19700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>7300</v>
       </c>
       <c r="W17" s="3">
         <v>7300</v>
@@ -1409,87 +1436,93 @@
         <v>7300</v>
       </c>
       <c r="Y17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>6900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1200</v>
       </c>
       <c r="T18" s="3">
         <v>-1200</v>
       </c>
       <c r="U18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-1100</v>
       </c>
       <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,20 +1549,21 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1564,11 +1598,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1585,78 +1619,81 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1100</v>
       </c>
       <c r="H21" s="3">
         <v>-1100</v>
       </c>
       <c r="I21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>800</v>
       </c>
       <c r="K21" s="3">
         <v>800</v>
       </c>
       <c r="L21" s="3">
+        <v>800</v>
+      </c>
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-700</v>
       </c>
       <c r="T21" s="3">
         <v>-700</v>
       </c>
       <c r="U21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V21" s="3">
         <v>-600</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-300</v>
       </c>
       <c r="W21" s="3">
         <v>-300</v>
       </c>
       <c r="X21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="Y21" s="3">
         <v>-600</v>
@@ -1664,8 +1701,11 @@
       <c r="Z21" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1690,8 +1730,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1705,8 +1745,8 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1200</v>
       </c>
       <c r="T23" s="3">
         <v>-1200</v>
       </c>
       <c r="U23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-800</v>
       </c>
       <c r="W23" s="3">
         <v>-800</v>
       </c>
       <c r="X23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-1100</v>
       </c>
       <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,16 +1882,16 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1868,12 +1914,12 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1884,10 +1930,13 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2235,8 +2296,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2253,11 +2314,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,20 +2471,23 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2452,11 +2522,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2473,87 +2543,93 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,67 +2921,68 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4500</v>
-      </c>
-      <c r="V41" s="3">
-        <v>2700</v>
       </c>
       <c r="W41" s="3">
         <v>2700</v>
@@ -2904,13 +2991,16 @@
         <v>2700</v>
       </c>
       <c r="Y41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z41" s="3">
         <v>3500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2995,75 +3088,78 @@
         <v>5200</v>
       </c>
       <c r="F43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G43" s="3">
         <v>4400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1100</v>
       </c>
       <c r="Q43" s="3">
         <v>1100</v>
       </c>
       <c r="R43" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="S43" s="3">
         <v>1300</v>
       </c>
       <c r="T43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U43" s="3">
         <v>37300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>36400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>45500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>36000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>41100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>38800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
@@ -3072,19 +3168,19 @@
         <v>500</v>
       </c>
       <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>400</v>
       </c>
       <c r="J44" s="3">
         <v>400</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -3095,8 +3191,8 @@
       <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
+      <c r="O44" s="3">
+        <v>200</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
@@ -3110,8 +3206,8 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3131,156 +3227,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E45" s="3">
         <v>98800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>68200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>76800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>72800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>61100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>87900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>108600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>61000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>54900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>49600</v>
       </c>
       <c r="S45" s="3">
         <v>49600</v>
       </c>
       <c r="T45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="U45" s="3">
         <v>11300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>13800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>15000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>15400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E46" s="3">
         <v>111100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>80700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>87400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>81400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>70600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>121300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>70900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>63600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>69100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>53000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>57800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>53000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>53500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>51900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>52400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>60900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>52500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>58900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>57700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,46 +3458,49 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
         <v>5700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6000</v>
       </c>
       <c r="F48" s="3">
         <v>6000</v>
       </c>
       <c r="G48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H48" s="3">
         <v>6300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4000</v>
       </c>
       <c r="P48" s="3">
         <v>4000</v>
@@ -3404,105 +3512,111 @@
         <v>4000</v>
       </c>
       <c r="S48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T48" s="3">
         <v>4300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1900</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2100</v>
       </c>
       <c r="X48" s="3">
         <v>2100</v>
       </c>
       <c r="Y48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Z48" s="3">
         <v>1900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3667,7 +3787,7 @@
         <v>1900</v>
       </c>
       <c r="H52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I52" s="3">
         <v>1800</v>
@@ -3676,16 +3796,16 @@
         <v>1800</v>
       </c>
       <c r="K52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1800</v>
       </c>
       <c r="O52" s="3">
         <v>1800</v>
@@ -3700,7 +3820,7 @@
         <v>1800</v>
       </c>
       <c r="S52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="T52" s="3">
         <v>1700</v>
@@ -3718,13 +3838,16 @@
         <v>1700</v>
       </c>
       <c r="Y52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Z52" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E54" s="3">
         <v>120800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>90900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>82200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>111800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>133700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>86900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>65800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>50300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>62500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>62000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>68200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>60200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>66900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>65600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,13 +4057,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
@@ -3942,43 +4073,43 @@
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -3987,22 +4118,25 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4010,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -4019,10 +4153,10 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -4036,17 +4170,17 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -4063,8 +4197,8 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4075,156 +4209,165 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E59" s="3">
         <v>102600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>73100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>80700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>75200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>63100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>90600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>111000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>62600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>67500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>62600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>56400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>40700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>51000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>58200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>49600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>55900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>53900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E60" s="3">
         <v>103600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>74000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>63800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>91800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>112500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>63500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>57100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>40900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>51700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>51300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>48900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>48800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>58500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>49900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>56100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>54200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4241,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -4259,17 +4402,17 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4297,49 +4440,52 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2500</v>
       </c>
       <c r="N62" s="3">
         <v>2500</v>
       </c>
       <c r="O62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P62" s="3">
         <v>2200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>2300</v>
       </c>
       <c r="Q62" s="3">
         <v>2300</v>
@@ -4348,31 +4494,34 @@
         <v>2300</v>
       </c>
       <c r="S62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="T62" s="3">
         <v>2500</v>
       </c>
       <c r="U62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V62" s="3">
         <v>2600</v>
-      </c>
-      <c r="V62" s="3">
-        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>100</v>
       </c>
       <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E66" s="3">
         <v>105700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>84000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>94200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>115000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>53700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>51500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>51400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>58600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>49900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>56100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>54200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>54300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-68900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-67000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-65400</v>
       </c>
       <c r="K72" s="3">
         <v>-65400</v>
       </c>
       <c r="L72" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-65600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-65800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-65100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-65200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-64300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-63000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-62200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-60600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-59400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-58100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-57000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-56200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-55300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-54300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E76" s="3">
         <v>15100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5628,22 +5827,22 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
       </c>
       <c r="H83" s="3">
+        <v>600</v>
+      </c>
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
@@ -5652,7 +5851,7 @@
         <v>600</v>
       </c>
       <c r="N83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
@@ -5664,7 +5863,7 @@
         <v>400</v>
       </c>
       <c r="R83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S83" s="3">
         <v>500</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E89" s="3">
         <v>28000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-1200</v>
       </c>
       <c r="U89" s="3">
         <v>-1200</v>
       </c>
       <c r="V89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6180,19 +6401,19 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-300</v>
       </c>
       <c r="M91" s="3">
         <v>-300</v>
@@ -6201,7 +6422,7 @@
         <v>-300</v>
       </c>
       <c r="O91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
@@ -6210,10 +6431,10 @@
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-200</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
@@ -6222,22 +6443,25 @@
         <v>-200</v>
       </c>
       <c r="V91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6611,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6402,28 +6632,28 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-300</v>
       </c>
       <c r="M94" s="3">
         <v>-300</v>
       </c>
       <c r="N94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O94" s="3">
         <v>-6200</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
@@ -6432,10 +6662,10 @@
         <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-200</v>
       </c>
       <c r="T94" s="3">
         <v>-200</v>
@@ -6444,22 +6674,25 @@
         <v>-200</v>
       </c>
       <c r="V94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
       </c>
       <c r="X94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,53 +7025,56 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6839,11 +7085,11 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -6851,13 +7097,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E102" s="3">
         <v>27800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2600</v>
       </c>
     </row>
